--- a/ThesisCorrections!.xlsx
+++ b/ThesisCorrections!.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Page</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Theory</t>
   </si>
   <si>
-    <t>2/3 down: gap in 1fb</t>
+    <t>2/3 down: add space in 1fb</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="B3:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -592,8 +592,12 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5"/>

--- a/ThesisCorrections!.xlsx
+++ b/ThesisCorrections!.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Page</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>Second Line: Add space in fb</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -58,6 +52,48 @@
   </si>
   <si>
     <t>2/3 down: add space in 1fb</t>
+  </si>
+  <si>
+    <t>Detector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detector </t>
+  </si>
+  <si>
+    <t>First Line: add space between 50 and MeV</t>
+  </si>
+  <si>
+    <t>Second Line: add space in fb</t>
+  </si>
+  <si>
+    <t>Add Ref: Fig 3.2</t>
+  </si>
+  <si>
+    <t>Add Ref: Fig 3.1</t>
+  </si>
+  <si>
+    <t>Add Ref: Fig 3.3</t>
+  </si>
+  <si>
+    <t>Definition: Pseudorapidity/ remove Lorentz Invariant</t>
+  </si>
+  <si>
+    <t>Add Ref: Fig 3.4</t>
+  </si>
+  <si>
+    <t>2/3 Down: Change "size" of crystal -&gt; dminesions, areas of</t>
+  </si>
+  <si>
+    <t>Above Eq. 3.3: become -&gt; becomes</t>
+  </si>
+  <si>
+    <t>Last Line: remove subscript S from C</t>
+  </si>
+  <si>
+    <t>2/3 Down: add space in 0.96m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd Paragraph in Muon System: Clarify first sentence. </t>
   </si>
 </sst>
 </file>
@@ -81,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -90,37 +126,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -131,29 +139,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -179,30 +165,373 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G16" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="32" tableBorderDxfId="33">
+  <autoFilter ref="B3:G16"/>
+  <sortState ref="B4:G9">
+    <sortCondition ref="B3:B9"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Page"/>
+    <tableColumn id="2" name="Examiner"/>
+    <tableColumn id="3" name="Section"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Progress" dataDxfId="31"/>
+    <tableColumn id="6" name="Finished?"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G47"/>
+  <dimension ref="B3:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -543,24 +872,24 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -570,248 +899,470 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="5"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="5"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="4">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="5"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="2">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6">
+        <v>100</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="5"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="2">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6">
+        <v>100</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="5"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="2">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6">
+        <v>100</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="5"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="2">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6">
+        <v>100</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="5"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="2">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="2">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6">
+        <v>100</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="2">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6">
+        <v>100</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="2">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="5"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="5"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="5"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="5"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="5"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="5"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="5"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="5"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="5"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
+      <c r="B26" s="2"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="5"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="5"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
+      <c r="B28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="5"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
+      <c r="B29" s="2"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="5"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="2"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="5"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
+      <c r="B31" s="2"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="5"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
+      <c r="B32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="5"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="2"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="5"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
+      <c r="B34" s="2"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="5"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="2"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="5"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
+      <c r="B36" s="2"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="5"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="5"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
+      <c r="B38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="5"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
+      <c r="B39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="5"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
+      <c r="B40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="5"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
+      <c r="B41" s="2"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="5"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
+      <c r="B42" s="2"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="5"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
+      <c r="B43" s="2"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="5"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
+      <c r="B44" s="2"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="5"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
+      <c r="B45" s="2"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="5"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
+      <c r="B46" s="2"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="5"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
+      <c r="B47" s="2"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="2"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"Full"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{53C932B4-9EC7-3148-A76B-E3369B7FD08C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Part">
+      <formula>NOT(ISERROR(SEARCH("Part",F1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"Not"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>"Full"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{53C932B4-9EC7-3148-A76B-E3369B7FD08C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>

--- a/ThesisCorrections!.xlsx
+++ b/ThesisCorrections!.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>Page</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t xml:space="preserve">2nd Paragraph in Muon System: Clarify first sentence. </t>
+  </si>
+  <si>
+    <t>Add Ref: Fig 3.6</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>Second line: Change clarity of sentence beginning - Constructing….</t>
+  </si>
+  <si>
+    <t>halfway down: change clarity of 50% track removed ambiguity</t>
   </si>
 </sst>
 </file>
@@ -179,7 +191,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -437,26 +449,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -517,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G16" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="32" tableBorderDxfId="33">
-  <autoFilter ref="B3:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G19" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="30" tableBorderDxfId="31">
+  <autoFilter ref="B3:G19"/>
   <sortState ref="B4:G9">
     <sortCondition ref="B3:B9"/>
   </sortState>
@@ -527,7 +519,7 @@
     <tableColumn id="2" name="Examiner"/>
     <tableColumn id="3" name="Section"/>
     <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Progress" dataDxfId="31"/>
+    <tableColumn id="5" name="Progress" dataDxfId="29"/>
     <tableColumn id="6" name="Finished?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -859,7 +851,7 @@
   <dimension ref="B3:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1141,22 +1133,67 @@
       <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="6">
+        <v>100</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="2">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="6">
+        <v>100</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
+      <c r="B18" s="2">
+        <v>67</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6">
+        <v>100</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="2"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="2">
+        <v>67</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7">

--- a/ThesisCorrections!.xlsx
+++ b/ThesisCorrections!.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>Page</t>
   </si>
@@ -72,6 +72,9 @@
     <t>Add Ref: Fig 3.1</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Add Ref: Fig 3.3</t>
   </si>
   <si>
@@ -105,7 +108,31 @@
     <t>Second line: Change clarity of sentence beginning - Constructing….</t>
   </si>
   <si>
-    <t>halfway down: change clarity of 50% track removed ambiguity</t>
+    <t>halfway down: change clarity of 50% track removed ambiguity(NOTE1)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked, what I have written is correct. Added explicit info that the chi2 rejection is also only if more than 50% shared hits. </t>
+  </si>
+  <si>
+    <t>1st Line of Jets: delete "more". 2nd Line: delete emit gluons et al</t>
+  </si>
+  <si>
+    <t>End of 1st Jets Paragraph: change plane-&gt;space, delete the</t>
+  </si>
+  <si>
+    <t>End of page: use y, don't define - NB do define it!</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Onjects</t>
+  </si>
+  <si>
+    <t>Last Line: allowing accurate measurments of PARENT PARTON momenta</t>
   </si>
 </sst>
 </file>
@@ -191,7 +218,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -209,66 +236,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -324,141 +291,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -509,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G19" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="30" tableBorderDxfId="31">
-  <autoFilter ref="B3:G19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B3:G23"/>
   <sortState ref="B4:G9">
     <sortCondition ref="B3:B9"/>
   </sortState>
@@ -519,7 +356,7 @@
     <tableColumn id="2" name="Examiner"/>
     <tableColumn id="3" name="Section"/>
     <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Progress" dataDxfId="29"/>
+    <tableColumn id="5" name="Progress" dataDxfId="10"/>
     <tableColumn id="6" name="Finished?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -848,19 +685,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G48"/>
+  <dimension ref="B3:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
     <col min="5" max="5" width="65.1640625" customWidth="1"/>
+    <col min="10" max="10" width="120.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,8 +717,14 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -899,8 +743,14 @@
       <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="4">
         <v>44</v>
       </c>
@@ -920,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:10">
       <c r="B6" s="4">
         <v>49</v>
       </c>
@@ -940,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:10">
       <c r="B7" s="4">
         <v>50</v>
       </c>
@@ -960,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:10">
       <c r="B8" s="4">
         <v>51</v>
       </c>
@@ -980,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:10">
       <c r="B9" s="2">
         <v>52</v>
       </c>
@@ -991,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="6">
         <v>100</v>
@@ -1000,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:10">
       <c r="B10" s="2">
         <v>52</v>
       </c>
@@ -1011,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="6">
         <v>100</v>
@@ -1020,7 +870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:10">
       <c r="B11" s="2">
         <v>53</v>
       </c>
@@ -1031,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6">
         <v>100</v>
@@ -1040,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:10">
       <c r="B12" s="2">
         <v>56</v>
       </c>
@@ -1051,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="6">
         <v>100</v>
@@ -1060,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:10">
       <c r="B13" s="2">
         <v>57</v>
       </c>
@@ -1071,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="6">
         <v>100</v>
@@ -1080,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:10">
       <c r="B14" s="2">
         <v>57</v>
       </c>
@@ -1091,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="6">
         <v>100</v>
@@ -1100,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:10">
       <c r="B15" s="2">
         <v>58</v>
       </c>
@@ -1111,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="6">
         <v>100</v>
@@ -1120,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:10">
       <c r="B16" s="2">
         <v>60</v>
       </c>
@@ -1131,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" s="6">
         <v>100</v>
@@ -1151,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="6">
         <v>100</v>
@@ -1168,10 +1018,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="6">
         <v>100</v>
@@ -1188,33 +1038,97 @@
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="F19" s="6">
+        <v>100</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="2">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="6">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="2">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="6">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="B22" s="2">
+        <v>69</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="2">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="6">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="2"/>
@@ -1343,12 +1257,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Full"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1360,22 +1274,25 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Part">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Part">
       <formula>NOT(ISERROR(SEARCH("Part",F1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Not"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"Full"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Null"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ThesisCorrections!.xlsx
+++ b/ThesisCorrections!.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>Page</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Add Ref: Fig 3.1</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Add Ref: Fig 3.3</t>
   </si>
   <si>
@@ -129,10 +126,16 @@
     <t>Null</t>
   </si>
   <si>
-    <t>Onjects</t>
-  </si>
-  <si>
     <t>Last Line: allowing accurate measurments of PARENT PARTON momenta</t>
+  </si>
+  <si>
+    <t>Add Ref for choice note of antikt</t>
+  </si>
+  <si>
+    <t>End of peniltimate paragraph: plane-&gt;space, and change cone radius wording</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 lines from bottom - spelling of dependant. </t>
   </si>
 </sst>
 </file>
@@ -346,8 +349,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B3:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G26" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B3:G26"/>
   <sortState ref="B4:G9">
     <sortCondition ref="B3:B9"/>
   </sortState>
@@ -688,7 +691,7 @@
   <dimension ref="B3:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:H29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -718,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
@@ -747,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -841,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="6">
         <v>100</v>
@@ -861,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="6">
         <v>100</v>
@@ -881,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="6">
         <v>100</v>
@@ -901,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="6">
         <v>100</v>
@@ -921,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="6">
         <v>100</v>
@@ -941,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="6">
         <v>100</v>
@@ -961,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="6">
         <v>100</v>
@@ -981,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6">
         <v>100</v>
@@ -1001,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="6">
         <v>100</v>
@@ -1018,10 +1021,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F18" s="6">
         <v>100</v>
@@ -1038,10 +1041,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="6">
         <v>100</v>
@@ -1058,10 +1061,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="6">
         <v>100</v>
@@ -1078,10 +1081,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="6">
         <v>100</v>
@@ -1098,16 +1101,16 @@
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="6">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -1118,31 +1121,72 @@
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="6">
+        <v>100</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="2">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F24" s="6">
+        <v>100</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="2">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="6">
-        <v>50</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="6">
+        <v>100</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="2"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="2">
+        <v>72</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:7">

--- a/ThesisCorrections!.xlsx
+++ b/ThesisCorrections!.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>Page</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">4 lines from bottom - spelling of dependant. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to Fig 4.2 Caption: breakdown of L1L2L3. </t>
   </si>
 </sst>
 </file>
@@ -254,26 +257,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -309,6 +292,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -349,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G26" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B3:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G27" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B3:G27"/>
   <sortState ref="B4:G9">
     <sortCondition ref="B3:B9"/>
   </sortState>
@@ -688,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J48"/>
+  <dimension ref="B3:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E32" sqref="E32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1186,12 +1189,27 @@
       <c r="E26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="6">
+        <v>100</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="2"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="2">
+        <v>73</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:7">
@@ -1299,9 +1317,14 @@
       <c r="F48" s="4"/>
       <c r="G48" s="5"/>
     </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="2"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Full"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1318,25 +1341,25 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Part">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Part">
       <formula>NOT(ISERROR(SEARCH("Part",F1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Not"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"Full"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Null"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Null"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ThesisCorrections!.xlsx
+++ b/ThesisCorrections!.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
   <si>
     <t>Page</t>
   </si>
@@ -72,6 +72,9 @@
     <t>Add Ref: Fig 3.1</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Add Ref: Fig 3.3</t>
   </si>
   <si>
@@ -139,6 +142,51 @@
   </si>
   <si>
     <t xml:space="preserve">Add to Fig 4.2 Caption: breakdown of L1L2L3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects </t>
+  </si>
+  <si>
+    <t>Remove references to jet corrections - instead say "corrections similar to those in section blah"</t>
+  </si>
+  <si>
+    <t>End of 2nd paragraph: clarify muon  requirements for removal</t>
+  </si>
+  <si>
+    <t>Just before Type II: clarify how the true tau energy is found</t>
+  </si>
+  <si>
+    <t>Second to last line: change Et to vectorial Et</t>
+  </si>
+  <si>
+    <t>MHT in heading - fix slash position!</t>
+  </si>
+  <si>
+    <t>1st paragraph and equation - make pTn vectorial</t>
+  </si>
+  <si>
+    <t>Comma in 5th line removed</t>
+  </si>
+  <si>
+    <t>AlphaT</t>
+  </si>
+  <si>
+    <t>2nd para, 6th line, change quantity to value!</t>
+  </si>
+  <si>
+    <t>Middle page, last line of paragraph, change 1 to one</t>
+  </si>
+  <si>
+    <t>Take horrible boxes out of plots</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>end of firs paraagraph, take out doulbe to "to to" Nnlo</t>
+  </si>
+  <si>
+    <t>Clarify NLO/NNLO/LO - is the level of diagras to that process</t>
   </si>
 </sst>
 </file>
@@ -224,7 +272,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -296,26 +344,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -352,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G27" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B3:G27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G39" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B3:G39"/>
   <sortState ref="B4:G9">
     <sortCondition ref="B3:B9"/>
   </sortState>
@@ -362,7 +390,7 @@
     <tableColumn id="2" name="Examiner"/>
     <tableColumn id="3" name="Section"/>
     <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Progress" dataDxfId="10"/>
+    <tableColumn id="5" name="Progress" dataDxfId="8"/>
     <tableColumn id="6" name="Finished?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -691,16 +719,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J49"/>
+  <dimension ref="B3:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="65.1640625" customWidth="1"/>
+    <col min="5" max="5" width="80" customWidth="1"/>
     <col min="10" max="10" width="120.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -724,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
@@ -753,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -847,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="6">
         <v>100</v>
@@ -867,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="6">
         <v>100</v>
@@ -887,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6">
         <v>100</v>
@@ -907,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="6">
         <v>100</v>
@@ -927,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="6">
         <v>100</v>
@@ -947,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="6">
         <v>100</v>
@@ -967,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="6">
         <v>100</v>
@@ -987,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" s="6">
         <v>100</v>
@@ -1007,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="6">
         <v>100</v>
@@ -1024,10 +1052,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="6">
         <v>100</v>
@@ -1044,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="6">
         <v>100</v>
@@ -1064,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="6">
         <v>100</v>
@@ -1084,10 +1112,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="6">
         <v>100</v>
@@ -1104,16 +1132,16 @@
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" s="6">
         <v>50</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -1124,10 +1152,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="6">
         <v>100</v>
@@ -1144,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" s="6">
         <v>100</v>
@@ -1164,10 +1192,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" s="6">
         <v>100</v>
@@ -1184,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" s="6">
         <v>100</v>
@@ -1204,72 +1232,252 @@
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="F27" s="6">
+        <v>100</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
+      <c r="B28" s="2">
+        <v>74</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="6">
+        <v>100</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="2">
+        <v>75</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="6">
+        <v>100</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
+      <c r="B30" s="2">
+        <v>75</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6">
+        <v>100</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="2">
+        <v>75</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="6">
+        <v>100</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+      <c r="B32" s="2">
+        <v>76</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="6">
+        <v>100</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="2">
+        <v>76</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="6">
+        <v>100</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+      <c r="B34" s="2">
+        <v>81</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="6">
+        <v>100</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="B35" s="2">
+        <v>82</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="6">
+        <v>100</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
+      <c r="B36" s="2">
+        <v>88</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="6">
+        <v>100</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="2">
+        <v>90</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="6">
+        <v>100</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="2"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
+      <c r="B38" s="2">
+        <v>94</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="6">
+        <v>100</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="2"/>
-      <c r="F39" s="4"/>
+      <c r="B39" s="2">
+        <v>94</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="6"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="2:7">
@@ -1321,6 +1529,36 @@
       <c r="B49" s="2"/>
       <c r="F49" s="4"/>
       <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="2"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="2"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="2"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="2"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3">

--- a/ThesisCorrections!.xlsx
+++ b/ThesisCorrections!.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="66">
   <si>
     <t>Page</t>
   </si>
@@ -72,6 +72,9 @@
     <t>Add Ref: Fig 3.1</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
@@ -186,7 +189,34 @@
     <t>end of firs paraagraph, take out doulbe to "to to" Nnlo</t>
   </si>
   <si>
-    <t>Clarify NLO/NNLO/LO - is the level of diagras to that process</t>
+    <t>Clarify NLO/NNLO/LO - is the level of diagrams to that process</t>
+  </si>
+  <si>
+    <t>Reword last sentence of Analysis Framework</t>
+  </si>
+  <si>
+    <t>Second paragraph, 3rd line, reword "can be considered 100 efficient by"</t>
+  </si>
+  <si>
+    <t>MHT slash in title</t>
+  </si>
+  <si>
+    <t>Reverse logic in cutflow - change all to requirements no vetoes!</t>
+  </si>
+  <si>
+    <t>Change jet thresholds to refer to future Table 6.9</t>
+  </si>
+  <si>
+    <t>DeltaPhi* should be super-script</t>
+  </si>
+  <si>
+    <t>Change "even event kinematics" to reflect the flast shape distribution</t>
+  </si>
+  <si>
+    <t>Terrry</t>
+  </si>
+  <si>
+    <t>Define jet scaling thresholds after selection - I have moved them to above the selection sections</t>
   </si>
 </sst>
 </file>
@@ -380,8 +410,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G39" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B3:G39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G47" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B3:G47"/>
   <sortState ref="B4:G9">
     <sortCondition ref="B3:B9"/>
   </sortState>
@@ -719,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J55"/>
+  <dimension ref="B3:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -752,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
@@ -781,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -875,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6">
         <v>100</v>
@@ -895,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="6">
         <v>100</v>
@@ -915,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6">
         <v>100</v>
@@ -935,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="6">
         <v>100</v>
@@ -955,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6">
         <v>100</v>
@@ -975,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="6">
         <v>100</v>
@@ -995,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="6">
         <v>100</v>
@@ -1015,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="6">
         <v>100</v>
@@ -1035,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="6">
         <v>100</v>
@@ -1052,10 +1082,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="6">
         <v>100</v>
@@ -1072,10 +1102,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6">
         <v>100</v>
@@ -1092,10 +1122,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="6">
         <v>100</v>
@@ -1112,10 +1142,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" s="6">
         <v>100</v>
@@ -1132,16 +1162,16 @@
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="6">
         <v>50</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -1152,10 +1182,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="6">
         <v>100</v>
@@ -1172,10 +1202,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" s="6">
         <v>100</v>
@@ -1192,10 +1222,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" s="6">
         <v>100</v>
@@ -1212,10 +1242,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" s="6">
         <v>100</v>
@@ -1232,10 +1262,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" s="6">
         <v>100</v>
@@ -1252,10 +1282,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="6">
         <v>100</v>
@@ -1272,10 +1302,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" s="6">
         <v>100</v>
@@ -1292,10 +1322,10 @@
         <v>5</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" s="6">
         <v>100</v>
@@ -1312,10 +1342,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="6">
         <v>100</v>
@@ -1332,16 +1362,16 @@
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" s="6">
         <v>100</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -1352,10 +1382,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="6">
         <v>100</v>
@@ -1372,10 +1402,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="F34" s="6">
         <v>100</v>
@@ -1392,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F35" s="6">
         <v>100</v>
@@ -1412,10 +1442,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F36" s="6">
         <v>100</v>
@@ -1432,10 +1462,10 @@
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37" s="6">
         <v>100</v>
@@ -1452,10 +1482,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38" s="6">
         <v>100</v>
@@ -1472,53 +1502,177 @@
         <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="2"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
+      <c r="B40" s="2">
+        <v>96</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="6">
+        <v>100</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
+      <c r="B41" s="2">
+        <v>98</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="6">
+        <v>100</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
+      <c r="B42" s="2">
+        <v>100</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="6">
+        <v>100</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="2">
+        <v>103</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="6">
+        <v>100</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
+      <c r="B44" s="2">
+        <v>103</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="6">
+        <v>100</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="2"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5"/>
+      <c r="B45" s="2">
+        <v>104</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="6">
+        <v>100</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5"/>
+      <c r="B46" s="2">
+        <v>104</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="6">
+        <v>100</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="5"/>
+      <c r="B47" s="2">
+        <v>104</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="6">
+        <v>100</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="2"/>
@@ -1559,6 +1713,21 @@
       <c r="B55" s="2"/>
       <c r="F55" s="4"/>
       <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="2"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="2"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="2"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3">

--- a/ThesisCorrections!.xlsx
+++ b/ThesisCorrections!.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
   <si>
     <t>Page</t>
   </si>
@@ -213,10 +213,46 @@
     <t>Change "even event kinematics" to reflect the flast shape distribution</t>
   </si>
   <si>
-    <t>Terrry</t>
-  </si>
-  <si>
     <t>Define jet scaling thresholds after selection - I have moved them to above the selection sections</t>
+  </si>
+  <si>
+    <t>Meff definition, beginning last paragraph</t>
+  </si>
+  <si>
+    <t>Add Overflow bins description into captions</t>
+  </si>
+  <si>
+    <t>First line, swap plot order in description - to agree with caption!!</t>
+  </si>
+  <si>
+    <t>remove synonomous from both 1st and 3rd bullet points.</t>
+  </si>
+  <si>
+    <t>Paragrah below bullets - change implicitly to explicitly, and remove "at its lowest"</t>
+  </si>
+  <si>
+    <t>Top bit: fix hanging sentence "used for predicion"</t>
+  </si>
+  <si>
+    <t>Remove hadronic in plot c caption</t>
+  </si>
+  <si>
+    <t>add "absolutely normalised" to 6.7 caption</t>
+  </si>
+  <si>
+    <t>Table very confusing - change all the labels to  agree with the maths defined previously</t>
+  </si>
+  <si>
+    <t>fix Mc in data confusing in last line.</t>
+  </si>
+  <si>
+    <t>Last bullet - add "from MC" to the end of"expected QCD yield"</t>
+  </si>
+  <si>
+    <t>Reminder reference to ealier trigger section for photon triggers</t>
+  </si>
+  <si>
+    <t>Similar treatment as to muon table</t>
   </si>
 </sst>
 </file>
@@ -410,8 +446,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G47" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B3:G47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:G60" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B3:G60"/>
   <sortState ref="B4:G9">
     <sortCondition ref="B3:B9"/>
   </sortState>
@@ -749,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J58"/>
+  <dimension ref="B3:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1659,75 +1695,290 @@
         <v>104</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="6">
+        <v>100</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="2">
+        <v>105</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="6">
-        <v>100</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="6">
+        <v>100</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5"/>
+      <c r="B49" s="2">
+        <v>106</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="6">
+        <v>100</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="2"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5"/>
+      <c r="B50" s="2">
+        <v>111</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="6">
+        <v>100</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="2"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5"/>
+      <c r="B51" s="2">
+        <v>113</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="6">
+        <v>100</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="2"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="B52" s="2">
+        <v>113</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="6">
+        <v>100</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="2"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5"/>
+      <c r="B53" s="2">
+        <v>114</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="6">
+        <v>100</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="2"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
+      <c r="B54" s="2">
+        <v>115</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="6">
+        <v>100</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="2"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
+      <c r="B55" s="2">
+        <v>115</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="6">
+        <v>100</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="2"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
+      <c r="B56" s="2">
+        <v>117</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="6">
+        <v>100</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="2"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5"/>
+      <c r="B57" s="2">
+        <v>119</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="6">
+        <v>100</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="2"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
+      <c r="B58" s="2">
+        <v>119</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="6">
+        <v>100</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="2">
+        <v>122</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="6">
+        <v>100</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="2">
+        <v>124</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="6">
+        <v>50</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="2"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="2"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3">
